--- a/medicine/Enfance/Caroline_Lawrence/Caroline_Lawrence.xlsx
+++ b/medicine/Enfance/Caroline_Lawrence/Caroline_Lawrence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caroline Lawrence, née en 1954 à Londres, est une écrivaine américaine, notamment connue pour sa série Les Mystères romains.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Caroline Lawrence est née à Londres, mais ses parents, américains, retournèrent aux États-Unis peu après, et elle grandit en Californie (à Bakersfield). Son père était professeur d'anglais et de théâtre et sa mère artiste. 
 À 12 ans, sa famille déménagea à l'Université Stanford (Californie) pour que son père étudie la linguistique. Caroline hérite de son père l'amour des mots et de sa mère l'amour de l'art. Elle étudia donc les lettres classiques à Berkeley. Elle obtint une bourse d'études pour Cambridge (Angleterre), où elle étudia au Newnham College les arts classiques et l'archéologie. 
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Les Mystères romains
-Du Sang sur la via Appia
+          <t>Série Les Mystères romains</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Du Sang sur la via Appia
 Les Secrets de Pompéi
 Les Pirates de Pompéi
 Les Assassins de Rome
@@ -566,9 +585,43 @@
 L'Émeraude du désert
 The Scribes from Alexandria (en)
 The Prophet from Ephesus (en)
-The Man from Pomegranate Street (en)
-Série Les Mystères du Far West
-Les Trois Desperados
+The Man from Pomegranate Street (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caroline_Lawrence</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_Lawrence</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Les Mystères du Far West</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Trois Desperados
 Qui a tué Sally Sampson ?</t>
         </is>
       </c>
